--- a/biology/Médecine/Cancer_bronchique_provoqué_par_des_carbures_métalliques/Cancer_bronchique_provoqué_par_des_carbures_métalliques.xlsx
+++ b/biology/Médecine/Cancer_bronchique_provoqué_par_des_carbures_métalliques/Cancer_bronchique_provoqué_par_des_carbures_métalliques.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Cancer_bronchique_provoqu%C3%A9_par_des_carbures_m%C3%A9talliques</t>
+          <t>Cancer_bronchique_provoqué_par_des_carbures_métalliques</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet article décrit les critères administratifs pour qu'un cancer bronchique provoqué par le cobalt soit reconnu comme maladie professionnelle.
 Ce sujet relève du domaine de la législation sur la protection sociale et a un caractère davantage juridique que médical.
@@ -495,7 +507,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Cancer_bronchique_provoqu%C3%A9_par_des_carbures_m%C3%A9talliques</t>
+          <t>Cancer_bronchique_provoqué_par_des_carbures_métalliques</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -515,15 +527,91 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Régime général
-Données professionnelles
-Le carbure de tungstène est un matériau très dur — 9 à l’échelle de Mohs — résultant d'une combinaison de carbone et de tungstène.
+          <t>Régime général</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Cancer_bronchique_provoqué_par_des_carbures_métalliques</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Cancer_bronchique_provoqu%C3%A9_par_des_carbures_m%C3%A9talliques</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Législation en  France</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Données professionnelles</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le carbure de tungstène est un matériau très dur — 9 à l’échelle de Mohs — résultant d'une combinaison de carbone et de tungstène.
 Il convient à divers alliages servant à la confection d'outils devant résister à l'usure comme les scies, les forets, la fraise (outil) ou l'outil de tour.
 Il est aussi utilisé pour faire des balles de munitions et parfois des billes de stylo.
 Il est principalement utilisé dans les outils coupant sous sa forme frittée à l'aide de cobalt, qui lui donne la ductilité nécessaire. On peut l'utiliser aussi dans le revêtement de matériaux pour en diminuer l'usure. Par exemple pour les centrifugeuses, on dépose du carbure de tungstène sur les spires pour un blindage plus performant.
 Le frittage est un procédé qui permet de réaliser des pièces mécaniques ou d'autres objets à partir de poudres plus ou moins fines. Dans un premier temps, ces poudres sont agglomérées par divers procédés pour constituer une préforme, laquelle est ensuite chauffée pour acquérir une certaine cohésion.
-Données médicales
-Le Cobalt métal en présence de carbure de tungstène est inscrit sur la liste des cancérogènes probables pour l'homme du groupe 2A du CIRC
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Cancer_bronchique_provoqué_par_des_carbures_métalliques</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Cancer_bronchique_provoqu%C3%A9_par_des_carbures_m%C3%A9talliques</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Législation en  France</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Données médicales</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le Cobalt métal en présence de carbure de tungstène est inscrit sur la liste des cancérogènes probables pour l'homme du groupe 2A du CIRC
 </t>
         </is>
       </c>
